--- a/result/gr25_04_simulated/details.xlsx
+++ b/result/gr25_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2242600917816162</v>
+        <v>0.2314448356628418</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135.7232935724242</v>
+        <v>135.377112823955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004433324256612843</v>
+        <v>0.004501256144425741</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00386704697855039</v>
+        <v>0.003975177641773857</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00386704697855039</v>
+        <v>0.003794857390920524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003400586103196059</v>
+        <v>0.003374893805232832</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003338677895715282</v>
+        <v>0.003153323868414926</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003078099420384597</v>
+        <v>0.003153323868414926</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003078099420384597</v>
+        <v>0.003053946330232168</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003078099420384597</v>
+        <v>0.003053946330232168</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002989143159586524</v>
+        <v>0.003053946330232168</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002989143159586524</v>
+        <v>0.002915008256453515</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002989143159586524</v>
+        <v>0.002915008256453515</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002955288755231973</v>
+        <v>0.002915008256453515</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002786502653826958</v>
+        <v>0.002847843814783699</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002786502653826958</v>
+        <v>0.002738634971041211</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002786502653826958</v>
+        <v>0.002713189473323647</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002767054844461612</v>
+        <v>0.002713189473323647</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002741908711727304</v>
+        <v>0.002692047660081536</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002670193831952921</v>
+        <v>0.00264321649884499</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002670193831952921</v>
+        <v>0.002642589193198934</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002645678237279223</v>
+        <v>0.002638930074541033</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2192676067352295</v>
+        <v>0.3429763317108154</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>136.2927353692357</v>
+        <v>140.6402111515235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004521149878776687</v>
+        <v>0.004615634665128008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003917201786262579</v>
+        <v>0.003950969851993556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003708299318171584</v>
+        <v>0.003488287948609589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003524569016558655</v>
+        <v>0.003488287948609589</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003524569016558655</v>
+        <v>0.003335573532809154</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003362333557390768</v>
+        <v>0.003335573532809154</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003337386394720602</v>
+        <v>0.003254173971923506</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003154241742434033</v>
+        <v>0.003173396093145029</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003154241742434033</v>
+        <v>0.003173396093145029</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002931181440151342</v>
+        <v>0.003110260335923912</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002891706158898159</v>
+        <v>0.003110260335923912</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002891706158898159</v>
+        <v>0.002938858922996793</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002864028889026763</v>
+        <v>0.002938858922996793</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00281412999366458</v>
+        <v>0.002938858922996793</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00281412999366458</v>
+        <v>0.002910469537963183</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002774563438080102</v>
+        <v>0.002890734417561941</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002745372375690446</v>
+        <v>0.002878008044052987</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002691023852729233</v>
+        <v>0.00279214166407306</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002658167377281238</v>
+        <v>0.00279214166407306</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002656778467236564</v>
+        <v>0.002741524583850361</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2929954528808594</v>
+        <v>0.3399138450622559</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.1749174000524</v>
+        <v>137.3039868001506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004395758191927477</v>
+        <v>0.00433510701669386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003910237512240587</v>
+        <v>0.003736444096399674</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003616544436863123</v>
+        <v>0.003658445665839916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003616544436863123</v>
+        <v>0.003425334252635089</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003246399188342108</v>
+        <v>0.003238710785821449</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003183616699325975</v>
+        <v>0.003238710785821449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003183616699325975</v>
+        <v>0.003238710785821449</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002973992837147416</v>
+        <v>0.003238710785821449</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002973992837147416</v>
+        <v>0.003207013671785601</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002973992837147416</v>
+        <v>0.00298866002835445</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002820174575902847</v>
+        <v>0.00298866002835445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002820174575902847</v>
+        <v>0.00298866002835445</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002820174575902847</v>
+        <v>0.00294705848722366</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002820174575902847</v>
+        <v>0.002922935500142631</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002763345527681074</v>
+        <v>0.002905910663629571</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002685939044765785</v>
+        <v>0.002809266476760967</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002669836928187925</v>
+        <v>0.002769861894226586</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002659910895211416</v>
+        <v>0.002725667021769805</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002640181974141113</v>
+        <v>0.002701392159600034</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002615495465887961</v>
+        <v>0.002676490970763169</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2439780235290527</v>
+        <v>0.2355992794036865</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>135.7156749123533</v>
+        <v>138.5499295047157</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004612780471123267</v>
+        <v>0.004398872970596697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003875683822547212</v>
+        <v>0.003835961736963654</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003803272336397384</v>
+        <v>0.003523989695630142</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003607903208360449</v>
+        <v>0.003523989695630142</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003383120386224441</v>
+        <v>0.003511824940256811</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00333608065875364</v>
+        <v>0.003469151577733073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.003220804998562735</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.003179109999931803</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.003179109999931803</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.003030883081295184</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.002938533738268917</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.002938533738268917</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002903379888864567</v>
+        <v>0.002835127482356514</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00282423605700568</v>
+        <v>0.002835127482356514</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002755845684584455</v>
+        <v>0.002775367609146837</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002755845684584455</v>
+        <v>0.002775367609146837</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002755845684584455</v>
+        <v>0.002775367609146837</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002697624418406316</v>
+        <v>0.002753907256612779</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002660271384873864</v>
+        <v>0.002741843535774842</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002645529725387003</v>
+        <v>0.002700778352918434</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254021167755127</v>
+        <v>0.3371186256408691</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>148.8617097457372</v>
+        <v>137.7672016294746</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00455978551449155</v>
+        <v>0.004627253007860288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003660888343350337</v>
+        <v>0.003718800522516498</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003660888343350337</v>
+        <v>0.003718800522516498</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003416729788640894</v>
+        <v>0.003717636637804077</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003375441956413816</v>
+        <v>0.003500037738349082</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003375441956413816</v>
+        <v>0.003500037738349082</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003236647643272916</v>
+        <v>0.003349339282146305</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003343842457460069</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003143097471198863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003143097471198863</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003098251838233855</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003053454012777286</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003074495883258747</v>
+        <v>0.003001205619705244</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003073196464744316</v>
+        <v>0.002947765901980883</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003073196464744316</v>
+        <v>0.002890653231714214</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003024461737788608</v>
+        <v>0.002880827882316785</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003024461737788608</v>
+        <v>0.00276398684989353</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002988431115719583</v>
+        <v>0.002726578528393671</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002901787714341856</v>
+        <v>0.002705271352275289</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002901787714341856</v>
+        <v>0.002685520499599894</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2499935626983643</v>
+        <v>0.3339564800262451</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.3755196625971</v>
+        <v>138.3781393995232</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004529806224703254</v>
+        <v>0.004447304750687902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003993003507609729</v>
+        <v>0.003956789097079046</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003384050811538104</v>
+        <v>0.003731461609205266</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003384050811538104</v>
+        <v>0.003527698161883749</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003255345803131967</v>
+        <v>0.003260446624240572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003245245804168925</v>
+        <v>0.003260446624240572</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003175120514485551</v>
+        <v>0.003260446624240572</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003175120514485551</v>
+        <v>0.003188012404131447</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003046415721653485</v>
+        <v>0.003048376225687655</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003025281568429312</v>
+        <v>0.00302014738982998</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002791188306474124</v>
+        <v>0.002966249496182418</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002791188306474124</v>
+        <v>0.002966249496182418</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002791188306474124</v>
+        <v>0.002966249496182418</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002753315792984583</v>
+        <v>0.002831872007076026</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002691537531820578</v>
+        <v>0.002831872007076026</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002653716484715031</v>
+        <v>0.002828657232220806</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002645891692938948</v>
+        <v>0.002757586714101529</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002569090496551483</v>
+        <v>0.002757586714101529</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002554659490981055</v>
+        <v>0.002721418460848023</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002541433131824504</v>
+        <v>0.002697429617924429</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2270040512084961</v>
+        <v>0.2606539726257324</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>137.1206942980825</v>
+        <v>139.3758696982768</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004627253007860288</v>
+        <v>0.00447304128724669</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003923903215125367</v>
+        <v>0.003961682878800228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003643842417827292</v>
+        <v>0.003648478404328215</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003345438906693864</v>
+        <v>0.003643613416052122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003345438906693864</v>
+        <v>0.003571207560830744</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003185735631715843</v>
+        <v>0.003571041832015219</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003185735631715843</v>
+        <v>0.003494837615210689</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002980301408091332</v>
+        <v>0.003275609430618193</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002980301408091332</v>
+        <v>0.003184412653084075</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002911401643620927</v>
+        <v>0.003099132162155157</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002911401643620927</v>
+        <v>0.003099132162155157</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002843873635952619</v>
+        <v>0.003049876964437272</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002843873635952619</v>
+        <v>0.002847593818675844</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002762597641119311</v>
+        <v>0.002847593818675844</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002744697437368349</v>
+        <v>0.002846794605923075</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002744697437368349</v>
+        <v>0.002808538268293498</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002731611292547596</v>
+        <v>0.002780513404557116</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002709057992855959</v>
+        <v>0.002780513404557116</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002683829601206121</v>
+        <v>0.002738476924051853</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002672918017506481</v>
+        <v>0.002716878551623329</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3289966583251953</v>
+        <v>0.2480313777923584</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>136.8330323007413</v>
+        <v>136.6947743276414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004473533546020512</v>
+        <v>0.004380533545867449</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003838900625081234</v>
+        <v>0.003826871150732757</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003736590902283078</v>
+        <v>0.003595881178480978</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003537179350101017</v>
+        <v>0.003595881178480978</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003379973542916353</v>
+        <v>0.003595881178480978</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003379973542916353</v>
+        <v>0.003451007987261537</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003268350100415045</v>
+        <v>0.003399213325043858</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003136435894522084</v>
+        <v>0.00324767354144711</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003108613046821991</v>
+        <v>0.00316906211958885</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002947581059233323</v>
+        <v>0.003168729533410324</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002947581059233323</v>
+        <v>0.002941680590475941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002838649434687463</v>
+        <v>0.002941680590475941</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002838649434687463</v>
+        <v>0.002882847382758224</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002803077909967492</v>
+        <v>0.002870971220770699</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002803077909967492</v>
+        <v>0.002811638296305133</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002731560233280663</v>
+        <v>0.002796849816869958</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002731560233280663</v>
+        <v>0.002749896561195485</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002692259620064212</v>
+        <v>0.002686855478302044</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00268893524013878</v>
+        <v>0.002686855478302044</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002667310571164546</v>
+        <v>0.002664615483969618</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2880003452301025</v>
+        <v>0.2206225395202637</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>148.2623428992356</v>
+        <v>138.3581620700224</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004555170904907951</v>
+        <v>0.004465899194877027</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003967548929423735</v>
+        <v>0.003907829559908991</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003430953145800752</v>
+        <v>0.003511412453748877</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003430953145800752</v>
+        <v>0.003339435791055122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003299503980686044</v>
+        <v>0.003162764901593703</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003214860636871818</v>
+        <v>0.00315728069415709</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003214860636871818</v>
+        <v>0.00315728069415709</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003214860636871818</v>
+        <v>0.00315728069415709</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003214860636871818</v>
+        <v>0.00315728069415709</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003214860636871818</v>
+        <v>0.003044564663160718</v>
       </c>
       <c r="P10" t="n">
-        <v>0.003095091984047299</v>
+        <v>0.002987461824108336</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.003095091984047299</v>
+        <v>0.002878739011244427</v>
       </c>
       <c r="R10" t="n">
-        <v>0.003022178717434094</v>
+        <v>0.002806607257657179</v>
       </c>
       <c r="S10" t="n">
-        <v>0.003022178717434094</v>
+        <v>0.002806607257657179</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002984028371590636</v>
+        <v>0.002785732892269853</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002984028371590636</v>
+        <v>0.00278482731724009</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002966381195095302</v>
+        <v>0.002763556253634319</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002894712433589568</v>
+        <v>0.002763556253634319</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002890979293132008</v>
+        <v>0.002721242595486088</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002890104150082565</v>
+        <v>0.002697040196296733</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254002571105957</v>
+        <v>0.2084298133850098</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>135.8105595267734</v>
+        <v>136.7230257424308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004469812886197392</v>
+        <v>0.004608920577053108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003875636329680292</v>
+        <v>0.003607200726702097</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003833108165786205</v>
+        <v>0.003607200726702097</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003684403413792724</v>
+        <v>0.003607200726702097</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003508792837783722</v>
+        <v>0.003394792618068765</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003412823230590301</v>
+        <v>0.003394792618068765</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003290601273972648</v>
+        <v>0.003385472471467504</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003290601273972648</v>
+        <v>0.003353271968289225</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003290601273972648</v>
+        <v>0.003123160999319678</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003107076119844027</v>
+        <v>0.002976491812094831</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002957909351712907</v>
+        <v>0.002852683388897261</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00288613042575563</v>
+        <v>0.002852683388897261</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002801272649468306</v>
+        <v>0.002852683388897261</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002801272649468306</v>
+        <v>0.002802443494147793</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002740735449064175</v>
+        <v>0.002797224871341398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002740735449064175</v>
+        <v>0.002743100358536828</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002740735449064175</v>
+        <v>0.002743100358536828</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002713213912113388</v>
+        <v>0.002682333297161711</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002667538540416018</v>
+        <v>0.002682333297161711</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002647379328007279</v>
+        <v>0.002665166193809566</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_04_simulated/details.xlsx
+++ b/result/gr25_04_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2314448356628418</v>
+        <v>0.3290019035339355</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135.377112823955</v>
+        <v>115.5762661441167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004501256144425741</v>
+        <v>0.003745993474737887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003975177641773857</v>
+        <v>0.003311221283276492</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003794857390920524</v>
+        <v>0.003271002261805447</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003374893805232832</v>
+        <v>0.002902045145337641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.003153323868414926</v>
+        <v>0.002856516092974327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003153323868414926</v>
+        <v>0.002759359772799551</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003053946330232168</v>
+        <v>0.002759359772799551</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003053946330232168</v>
+        <v>0.002737907235398586</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003053946330232168</v>
+        <v>0.002576774990157842</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002915008256453515</v>
+        <v>0.002545155628568645</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002915008256453515</v>
+        <v>0.002533374939058052</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.002915008256453515</v>
+        <v>0.002491612511506542</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002847843814783699</v>
+        <v>0.002464560822715964</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002738634971041211</v>
+        <v>0.002326521707540411</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002713189473323647</v>
+        <v>0.002320505244877328</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002713189473323647</v>
+        <v>0.002271102864559079</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002692047660081536</v>
+        <v>0.002271102864559079</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00264321649884499</v>
+        <v>0.002271102864559079</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002642589193198934</v>
+        <v>0.002263966386255195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002638930074541033</v>
+        <v>0.002252948657780053</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3429763317108154</v>
+        <v>0.3210048675537109</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>140.6402111515235</v>
+        <v>116.0820356708336</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004615634665128008</v>
+        <v>0.00390114034510335</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003950969851993556</v>
+        <v>0.003154378546753798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003488287948609589</v>
+        <v>0.003154378546753798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003488287948609589</v>
+        <v>0.002984356511183791</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003335573532809154</v>
+        <v>0.002614503151397367</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003335573532809154</v>
+        <v>0.002614503151397367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003254173971923506</v>
+        <v>0.002614503151397367</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003173396093145029</v>
+        <v>0.002496781556896464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003173396093145029</v>
+        <v>0.002496781556896464</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003110260335923912</v>
+        <v>0.002496781556896464</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003110260335923912</v>
+        <v>0.002484546738162722</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002938858922996793</v>
+        <v>0.002484546738162722</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002938858922996793</v>
+        <v>0.002484338710470062</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002938858922996793</v>
+        <v>0.002380461949905595</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002910469537963183</v>
+        <v>0.002337992552872809</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002890734417561941</v>
+        <v>0.002337992552872809</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002878008044052987</v>
+        <v>0.002333518475021782</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00279214166407306</v>
+        <v>0.00229463697748413</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00279214166407306</v>
+        <v>0.002267394726359182</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002741524583850361</v>
+        <v>0.002262807712881747</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3399138450622559</v>
+        <v>0.487013578414917</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>137.3039868001506</v>
+        <v>115.3677209115485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00433510701669386</v>
+        <v>0.003875298282895648</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003736444096399674</v>
+        <v>0.003188322757866584</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003658445665839916</v>
+        <v>0.003087980234697744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003425334252635089</v>
+        <v>0.003051043328891713</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003238710785821449</v>
+        <v>0.002951784720873412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003238710785821449</v>
+        <v>0.002800067778144085</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003238710785821449</v>
+        <v>0.002721152937764782</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003238710785821449</v>
+        <v>0.002504028349357129</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003207013671785601</v>
+        <v>0.002504028349357129</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00298866002835445</v>
+        <v>0.002504028349357129</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00298866002835445</v>
+        <v>0.002504028349357129</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00298866002835445</v>
+        <v>0.002363532524819749</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00294705848722366</v>
+        <v>0.002363532524819749</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002922935500142631</v>
+        <v>0.002363532524819749</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002905910663629571</v>
+        <v>0.002363532524819749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002809266476760967</v>
+        <v>0.002363532524819749</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002769861894226586</v>
+        <v>0.002277540747599822</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002725667021769805</v>
+        <v>0.002277540747599822</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002701392159600034</v>
+        <v>0.002277540747599822</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002676490970763169</v>
+        <v>0.002248883448568197</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2355992794036865</v>
+        <v>0.5479989051818848</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>138.5499295047157</v>
+        <v>129.5008367562514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004398872970596697</v>
+        <v>0.00390114034510335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003835961736963654</v>
+        <v>0.003351749235726567</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003523989695630142</v>
+        <v>0.003094400686186169</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003523989695630142</v>
+        <v>0.002971856705439614</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003511824940256811</v>
+        <v>0.002971856705439614</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003469151577733073</v>
+        <v>0.002971856705439614</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003220804998562735</v>
+        <v>0.002909294371298354</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003179109999931803</v>
+        <v>0.002908298953286547</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003179109999931803</v>
+        <v>0.002671325835986405</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003030883081295184</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002938533738268917</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002938533738268917</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002835127482356514</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002835127482356514</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002775367609146837</v>
+        <v>0.002627250102949558</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002775367609146837</v>
+        <v>0.002596645324756395</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002775367609146837</v>
+        <v>0.002587793423552649</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002753907256612779</v>
+        <v>0.002557117657885866</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002741843535774842</v>
+        <v>0.002546989163288459</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002700778352918434</v>
+        <v>0.002524382782772931</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3371186256408691</v>
+        <v>0.5440025329589844</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>137.7672016294746</v>
+        <v>119.1773031544708</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004627253007860288</v>
+        <v>0.003816966319851988</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003718800522516498</v>
+        <v>0.003348853838115831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003718800522516498</v>
+        <v>0.002965452240544243</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003717636637804077</v>
+        <v>0.002896068243171647</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003500037738349082</v>
+        <v>0.002896068243171647</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003500037738349082</v>
+        <v>0.002762568115126766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003349339282146305</v>
+        <v>0.002762568115126766</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003343842457460069</v>
+        <v>0.002655454454591582</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003143097471198863</v>
+        <v>0.002578546452246815</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003143097471198863</v>
+        <v>0.002473197925874135</v>
       </c>
       <c r="P6" t="n">
-        <v>0.003098251838233855</v>
+        <v>0.002473197925874135</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003053454012777286</v>
+        <v>0.002473197925874135</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003001205619705244</v>
+        <v>0.002473197925874135</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002947765901980883</v>
+        <v>0.002473197925874135</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002890653231714214</v>
+        <v>0.002450470933164224</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002880827882316785</v>
+        <v>0.002367915880235332</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00276398684989353</v>
+        <v>0.002367915880235332</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002726578528393671</v>
+        <v>0.002367679258896727</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002705271352275289</v>
+        <v>0.002346915689997923</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002685520499599894</v>
+        <v>0.002323144311003329</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3339564800262451</v>
+        <v>0.4249985218048096</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>138.3781393995232</v>
+        <v>117.4314627904896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004447304750687902</v>
+        <v>0.00390114034510335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003956789097079046</v>
+        <v>0.003106077429802523</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003731461609205266</v>
+        <v>0.003088420740287512</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003527698161883749</v>
+        <v>0.003088420740287512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003260446624240572</v>
+        <v>0.003012524027192262</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003260446624240572</v>
+        <v>0.00285937749652403</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003260446624240572</v>
+        <v>0.00285937749652403</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003188012404131447</v>
+        <v>0.00285937749652403</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003048376225687655</v>
+        <v>0.002805399533358707</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00302014738982998</v>
+        <v>0.002678906427032384</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002966249496182418</v>
+        <v>0.002643496840581979</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002966249496182418</v>
+        <v>0.002643496840581979</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002966249496182418</v>
+        <v>0.002587195590327631</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002831872007076026</v>
+        <v>0.002511841649580642</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002831872007076026</v>
+        <v>0.002464887513052288</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002828657232220806</v>
+        <v>0.002350473465424561</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002757586714101529</v>
+        <v>0.002350473465424561</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002757586714101529</v>
+        <v>0.002292844280938532</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002721418460848023</v>
+        <v>0.002292844280938532</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002697429617924429</v>
+        <v>0.002289112335097263</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2606539726257324</v>
+        <v>0.4049961566925049</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>139.3758696982768</v>
+        <v>111.821973236918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00447304128724669</v>
+        <v>0.003590901701430972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003961682878800228</v>
+        <v>0.003347972639388806</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003648478404328215</v>
+        <v>0.003152854258406206</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003643613416052122</v>
+        <v>0.003037416513677748</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003571207560830744</v>
+        <v>0.003037416513677748</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003571041832015219</v>
+        <v>0.002888145139176945</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003494837615210689</v>
+        <v>0.002879339649445388</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003275609430618193</v>
+        <v>0.002738439701221337</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003184412653084075</v>
+        <v>0.002709927482098853</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003099132162155157</v>
+        <v>0.002524346503001655</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003099132162155157</v>
+        <v>0.002524346503001655</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003049876964437272</v>
+        <v>0.002493418117328882</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002847593818675844</v>
+        <v>0.002385573940101471</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002847593818675844</v>
+        <v>0.002321587206784032</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002846794605923075</v>
+        <v>0.002252201359514283</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002808538268293498</v>
+        <v>0.002252201359514283</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002780513404557116</v>
+        <v>0.002246477327907021</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002780513404557116</v>
+        <v>0.002246477327907021</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002738476924051853</v>
+        <v>0.002179765560173839</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002716878551623329</v>
+        <v>0.002179765560173839</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2480313777923584</v>
+        <v>0.4349937438964844</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>136.6947743276414</v>
+        <v>122.3932759372856</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004380533545867449</v>
+        <v>0.00390114034510335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003826871150732757</v>
+        <v>0.003255092378214194</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003595881178480978</v>
+        <v>0.003076931133893406</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003595881178480978</v>
+        <v>0.002946731242252434</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003595881178480978</v>
+        <v>0.002946731242252434</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003451007987261537</v>
+        <v>0.002946731242252434</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003399213325043858</v>
+        <v>0.002946731242252434</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00324767354144711</v>
+        <v>0.002923845474666755</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00316906211958885</v>
+        <v>0.002693520465047228</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003168729533410324</v>
+        <v>0.002693520465047228</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002941680590475941</v>
+        <v>0.002693520465047228</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002941680590475941</v>
+        <v>0.002693520465047228</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002882847382758224</v>
+        <v>0.002693520465047228</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002870971220770699</v>
+        <v>0.002678015235453794</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002811638296305133</v>
+        <v>0.002566830535159747</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002796849816869958</v>
+        <v>0.002562960805302827</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002749896561195485</v>
+        <v>0.002521946752101967</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002686855478302044</v>
+        <v>0.002499489200416713</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002686855478302044</v>
+        <v>0.002429860868424266</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002664615483969618</v>
+        <v>0.002385833838933442</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2206225395202637</v>
+        <v>0.4180018901824951</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>138.3581620700224</v>
+        <v>121.394236595961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004465899194877027</v>
+        <v>0.00390114034510335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003907829559908991</v>
+        <v>0.003562289639906234</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003511412453748877</v>
+        <v>0.003181439551302454</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003339435791055122</v>
+        <v>0.003086772112001411</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003162764901593703</v>
+        <v>0.002888602871172946</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00315728069415709</v>
+        <v>0.002888602871172946</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00315728069415709</v>
+        <v>0.002879350245184433</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00315728069415709</v>
+        <v>0.002746191571010877</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00315728069415709</v>
+        <v>0.002746191571010877</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003044564663160718</v>
+        <v>0.002746191571010877</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002987461824108336</v>
+        <v>0.002687363836138241</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002878739011244427</v>
+        <v>0.002657060311746683</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002806607257657179</v>
+        <v>0.002570654203022126</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002806607257657179</v>
+        <v>0.002570654203022126</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002785732892269853</v>
+        <v>0.002486518986518995</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00278482731724009</v>
+        <v>0.002469341334502613</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002763556253634319</v>
+        <v>0.002469341334502613</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002763556253634319</v>
+        <v>0.002404124137270383</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002721242595486088</v>
+        <v>0.002392639939210207</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002697040196296733</v>
+        <v>0.002366359387835497</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2084298133850098</v>
+        <v>0.3959970474243164</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>136.7230257424308</v>
+        <v>115.0059951187304</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004608920577053108</v>
+        <v>0.003674671469616441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003607200726702097</v>
+        <v>0.003428591630406239</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003607200726702097</v>
+        <v>0.003198387528082945</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003607200726702097</v>
+        <v>0.003198387528082945</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003394792618068765</v>
+        <v>0.003198387528082945</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003394792618068765</v>
+        <v>0.002882516527010096</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003385472471467504</v>
+        <v>0.002882516527010096</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003353271968289225</v>
+        <v>0.002792470487521237</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003123160999319678</v>
+        <v>0.002731008768422358</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002976491812094831</v>
+        <v>0.002731008768422358</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002852683388897261</v>
+        <v>0.002695263078483754</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002852683388897261</v>
+        <v>0.002559899364851555</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002852683388897261</v>
+        <v>0.002559899364851555</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002802443494147793</v>
+        <v>0.002559899364851555</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002797224871341398</v>
+        <v>0.002435825442533147</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002743100358536828</v>
+        <v>0.002405991964749855</v>
       </c>
       <c r="V11" t="n">
-        <v>0.002743100358536828</v>
+        <v>0.002370610493854384</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002682333297161711</v>
+        <v>0.002334412140038441</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002682333297161711</v>
+        <v>0.002305415447388806</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.002665166193809566</v>
+        <v>0.002241832263523009</v>
       </c>
     </row>
   </sheetData>
